--- a/Калькулятор целесообразности отправки экспресс-почтой.xlsx
+++ b/Калькулятор целесообразности отправки экспресс-почтой.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E1096-9144-47DC-BAA6-A4E6829A6DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="rup0DHFRWRnwC1jcEXokHuKRT/oM/wYGF3A9A/uFjNuZzmP3LmQQCiAO8r9an465uyQuIXMjGbeqiDt6AefZSQ==" workbookSaltValue="f4lLkuw/eI5+QRUE80+m0g==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A728A364-45E6-49DA-BFC3-8A2812ADAC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="zp/KHMJr6XPcTZ0lzqncYXlEXQgcpfgbCsWsCyD5N+CcDDbW0WxUJGyaY84klhs2M6iyp/aANsdxfTKe2qgGXA==" workbookSaltValue="4aluhLxzThOmEmDln9TpsQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{07243D83-340D-415A-B738-1876674BFF47}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="326">
   <si>
     <t>Город отправления</t>
   </si>
@@ -1006,6 +1006,9 @@
   </si>
   <si>
     <t>Тариф не согласован</t>
+  </si>
+  <si>
+    <t>Порог</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1210,6 +1213,7 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% — акцент2" xfId="2" builtinId="36"/>
@@ -1546,7 +1550,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="D2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +1561,7 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.85546875" customWidth="1"/>
     <col min="6" max="6" width="59.85546875" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" customWidth="1"/>
+    <col min="7" max="7" width="58.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -1664,7 +1668,7 @@
         <v>321</v>
       </c>
       <c r="F9" s="15" t="str">
-        <f>IF(AND($F$7=$I$4,F8&lt;10000),"Не требуется согласование",IF(AND(F7=I4,F8&gt;10000),"Требуется согласование, так как тариф больше 10 000 руб.",IF(AND(F7&gt;10000,F8&gt;F7),"Требуется согласование, так как тариф больше 10 000 руб. и тариф в ЛК выше рассчитанного",IF(F7&gt;10000,"Требуется согласование, так как тариф больше 10 000 руб.",IF(AND(F8&gt;F7,F7&lt;10000),"Требуется согласование, так как тариф в ЛК выше рассчитанного",IF(AND(F7&lt;10000,F8&lt;F7),"Не требуется согласование"))))))</f>
+        <f>IF(AND($F$7=$I$4,F8&lt;Города!$F$1),"Не требуется согласование",IF(AND(F7=I4,F8&gt;Города!$F$1),"Требуется согласование, так как тариф из ЛК больше 10 000 руб.",IF(AND(F7&gt;Города!$F$1,F8&gt;F7),"Требуется согласование, так как тариф больше 10 000 руб. и тариф в ЛК выше рассчитанного",IF(F7&gt;Города!$F$1,"Требуется согласование, так как тариф больше 10 000 руб.",IF(AND(F8&gt;F7,F7&lt;Города!$F$1),"Требуется согласование, так как тариф в ЛК выше рассчитанного",IF(AND(F7&lt;Города!$F$1,F8&lt;F7),"Не требуется согласование"))))))</f>
         <v>Не требуется согласование</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -1673,7 +1677,7 @@
       <c r="N9" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="YVEK+jUaew1KikKCGqLyhTYXiqVCxeFyU6mIXiFEwvKcVQ4iC95JWl8N0EnPDnghuKegQIBTY5a8/k+/0RcD0Q==" saltValue="xWCQxjVoD/sV1gFpjIxFWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="agtGo0T8YE3NEnSjgTH9g0goGSAd0h+c//iqrYR7rj3MpMkTjUsNV0Ot2FEtZ+1irE3LW21Hda/tzT4E39uhWg==" saltValue="sH/UHyRBnG4bFRej0Y0Vnw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="F3:F5 F8" name="Диапазон1"/>
   </protectedRanges>
@@ -1702,10 +1706,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C015441-9E35-4A9F-AE5F-5908745B1858}">
   <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:A247"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,82 +1717,88 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" s="26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>257</v>
       </c>
@@ -2949,7 +2959,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E112wXf9qCvS/EmjYLUB9VqNTS/FfJMBSfAL3cl9reUjax0CvK2fWpM047xUffjff+w6TsGbieP/yUmwchzOyQ==" saltValue="SmCWoOxIC92I3IkWg7XlhA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UMdCXq4LZBvdTQX7N0dSQWLDFR9P6x8nemPrPnMts1+GzUz/TkigAvHiX2F7ara2BZTM7voUYsnALm5KVukJFA==" saltValue="svM11JBBpfrOquPlO0kMHQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -2964,7 +2974,7 @@
   <dimension ref="A1:J643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20338,7 +20348,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UY7RDnluOObMW1UJLtsKRjKRM+nY2uxu9sY9n9pGUiKxWN4UvKvhw3jYejnT72hup3dU+XPUk3IjfoxaXB7ckg==" saltValue="cgIMFq2z3asBi3rUrzQ9Nw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="h6AE/EmhAWm0pa2azm4KdZKnuDOBOtYmwO7Fo1FlGN/3uDEHDYeKXJSqJUsYpI6iW9dGA1+ztUNOMZJ5DycD3g==" saltValue="rcUjIX8UYdKi+cbEIV8DRg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <autoFilter ref="A1:J643" xr:uid="{9239A4EC-0690-4DBD-9EC9-373922361275}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
